--- a/assignments/cw2 drafts/task-plan.xlsx
+++ b/assignments/cw2 drafts/task-plan.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pcowe/Desktop/python-data-programming/assignments/cw2 drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E33BE60-EFB7-3D41-AE90-D557C3B5DF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2696623-457F-7A4C-846C-93FA459E286F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="480" windowWidth="23160" windowHeight="17540" xr2:uid="{5A9C4F78-ACD2-2E4A-BE11-E176A0F20257}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22760" windowHeight="17540" xr2:uid="{5A9C4F78-ACD2-2E4A-BE11-E176A0F20257}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Task Plan" sheetId="1" r:id="rId1"/>
+    <sheet name="Preprocessing" sheetId="2" r:id="rId2"/>
+    <sheet name="Analysis" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="71">
   <si>
     <t>Task</t>
   </si>
@@ -133,14 +136,144 @@
 1.2 Acquire Intellectual Property Filing Data from BigQuery Datawarehouse</t>
   </si>
   <si>
-    <t>2. Data Preprocessing</t>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>Preprocessing Classification</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Referenced Scenario</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Google Trends</t>
+  </si>
+  <si>
+    <t>Google Patents</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Source Table</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>Platforms</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t>yearly</t>
+  </si>
+  <si>
+    <t>blockchain</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>web search</t>
+  </si>
+  <si>
+    <t>africa</t>
+  </si>
+  <si>
+    <t>northamerica</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>over many years</t>
+  </si>
+  <si>
+    <t>monthky</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>ae</t>
+  </si>
+  <si>
+    <t>time class</t>
+  </si>
+  <si>
+    <t>Time granularity</t>
+  </si>
+  <si>
+    <t>each day of the month of december</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>topics</t>
+  </si>
+  <si>
+    <t>afric</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>each month oct 17 to feb. 18</t>
+  </si>
+  <si>
+    <t>yly</t>
+  </si>
+  <si>
+    <t>7 n 8</t>
+  </si>
+  <si>
+    <t>nft, block, crypto</t>
+  </si>
+  <si>
+    <t>yt</t>
+  </si>
+  <si>
+    <t>2. Data Preprocessing
+2.1 Data Cleaning (Trends)
+2.2 Data Transformation (IP transform to NLP compatible models)
+2.3 Data integration (Trends countries)
+2.4 Data Reduction (sampling patent data)</t>
+  </si>
+  <si>
+    <t>Pattern Extraction</t>
+  </si>
+  <si>
+    <t>Pattern Evaluation</t>
+  </si>
+  <si>
+    <t>Pattern Presentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,13 +304,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -192,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -215,6 +373,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FAF85-B879-4F49-BD07-4A37D780F047}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -571,7 +738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="200" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -587,7 +754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="100" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="220" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -599,8 +766,8 @@
       <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>28</v>
+      <c r="G3" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="100" x14ac:dyDescent="0.25">
@@ -614,6 +781,9 @@
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
         <v>21</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="100" x14ac:dyDescent="0.25">
@@ -626,6 +796,9 @@
       <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="G5" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
@@ -636,6 +809,9 @@
       <c r="D6" s="6"/>
       <c r="E6" s="7" t="s">
         <v>19</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="80" x14ac:dyDescent="0.25">
@@ -690,4 +866,469 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7AE063-E37E-3543-97F7-23A9D46243B7}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="G1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17ED1A8-98DC-7D4A-A2EC-3D9DFC1C35DE}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="G1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A429EF8-7D0E-F84F-A22A-1F9BBBD98FBC}">
+  <dimension ref="A1:P35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N6" s="15"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I15" s="15"/>
+      <c r="P15" s="15"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assignments/cw2 drafts/task-plan.xlsx
+++ b/assignments/cw2 drafts/task-plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pcowe/Desktop/python-data-programming/assignments/cw2 drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2696623-457F-7A4C-846C-93FA459E286F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF90FB5-0D55-354D-835E-AEDCB86C25EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22760" windowHeight="17540" xr2:uid="{5A9C4F78-ACD2-2E4A-BE11-E176A0F20257}"/>
+    <workbookView xWindow="460" yWindow="460" windowWidth="22760" windowHeight="17540" xr2:uid="{5A9C4F78-ACD2-2E4A-BE11-E176A0F20257}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Plan" sheetId="1" r:id="rId1"/>
@@ -38,104 +38,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="75">
   <si>
     <t>Task</t>
   </si>
   <si>
-    <t>state clearly your aims and objectives in carrying out this analysis</t>
-  </si>
-  <si>
-    <t>descriptive</t>
-  </si>
-  <si>
     <t>Assignment Objective</t>
   </si>
   <si>
     <t>Assignment criteria</t>
   </si>
   <si>
-    <t>Task Categories</t>
-  </si>
-  <si>
-    <t>analytical</t>
-  </si>
-  <si>
-    <t>technical</t>
-  </si>
-  <si>
-    <t>use data processing techniques to prepare and process the data into useful, analytical form.</t>
-  </si>
-  <si>
-    <t>use statistical and other appropriate metrics to analyse and evaluate the data</t>
-  </si>
-  <si>
-    <t>use visualisation, tabulation or other techniques to summarise and present the data</t>
-  </si>
-  <si>
-    <t>present your work as a report in the form of a single Jupyter notebook file using markdown, Python code and other appropriate formats for presentation</t>
-  </si>
-  <si>
-    <t>develop an evidence-based narrative in the report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use error handling techniques to ensure your data processing pipeline is robust </t>
-  </si>
-  <si>
     <t xml:space="preserve">Aims and objectives are clearly defined, measurable and </t>
   </si>
   <si>
     <t xml:space="preserve">Robust error checking and handling </t>
   </si>
   <si>
-    <t>Advanced
-techniques used</t>
-  </si>
-  <si>
-    <t>Different tools
-have been
-considered</t>
-  </si>
-  <si>
-    <t>Evaluation/conc lusion are well formed based
-on evidence</t>
-  </si>
-  <si>
-    <t>Data processing
-pipelines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simple code
-and clear
-commentary </t>
-  </si>
-  <si>
-    <t>Data capture,
-processing and
-analysis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Project novelty </t>
   </si>
   <si>
-    <t>Exceptional
-work</t>
-  </si>
-  <si>
-    <t>Count of Objectives met</t>
-  </si>
-  <si>
-    <t>Count of Criteria met</t>
-  </si>
-  <si>
-    <t>Task Classification</t>
-  </si>
-  <si>
-    <t>1. Acquire Data
-1.1 Acquire Online Search Data from Google Trends via REST API
-1.2 Acquire Intellectual Property Filing Data from BigQuery Datawarehouse</t>
-  </si>
-  <si>
     <t>Rule</t>
   </si>
   <si>
@@ -253,20 +175,96 @@
     <t>yt</t>
   </si>
   <si>
-    <t>2. Data Preprocessing
-2.1 Data Cleaning (Trends)
-2.2 Data Transformation (IP transform to NLP compatible models)
-2.3 Data integration (Trends countries)
-2.4 Data Reduction (sampling patent data)</t>
-  </si>
-  <si>
-    <t>Pattern Extraction</t>
-  </si>
-  <si>
-    <t>Pattern Evaluation</t>
-  </si>
-  <si>
-    <t>Pattern Presentation</t>
+    <t>State clearly your aims and objectives in carrying out this analysis</t>
+  </si>
+  <si>
+    <t>Use data processing techniques to prepare and process the data into useful, analytical form.</t>
+  </si>
+  <si>
+    <t>Use statistical and other appropriate metrics to analyse and evaluate the data</t>
+  </si>
+  <si>
+    <t>Use visualisation, tabulation or other techniques to summarise and present the data</t>
+  </si>
+  <si>
+    <t>Present your work as a report in the form of a single Jupyter notebook file using markdown, Python code and other appropriate formats for presentation</t>
+  </si>
+  <si>
+    <t>Develop an evidence-based narrative in the report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use error handling techniques to ensure your data processing pipeline is robust </t>
+  </si>
+  <si>
+    <t>Data capture, processing and analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple code and clear commentary </t>
+  </si>
+  <si>
+    <t>Data processing pipelines</t>
+  </si>
+  <si>
+    <t>Advanced techniques used</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>My  Tasks</t>
+  </si>
+  <si>
+    <t>3.2 Pattern Evaluation (Discussion)</t>
+  </si>
+  <si>
+    <t>4. Visualization</t>
+  </si>
+  <si>
+    <t>4.2 Time series</t>
+  </si>
+  <si>
+    <t>4.1 Data architecture design, basic statistical plots</t>
+  </si>
+  <si>
+    <t>4.3 Text to video embedding using Pretrained ML model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Data Analysis (Descriptive and Predictive)
+</t>
+  </si>
+  <si>
+    <t>3.1 Pattern Extraction ( Logical inference, Pretrained models)</t>
+  </si>
+  <si>
+    <t>Exceptional work</t>
+  </si>
+  <si>
+    <t>Different tools have been considered</t>
+  </si>
+  <si>
+    <t>Conclusions are well formed based on evidence</t>
+  </si>
+  <si>
+    <t>2.4  Reduction (Data sampling methods)</t>
+  </si>
+  <si>
+    <t>2.3 Integration (Map codes for all countries)</t>
+  </si>
+  <si>
+    <t>2.2 Transformation (Embedding representation)</t>
+  </si>
+  <si>
+    <t>2.1 Data Cleaning (Stats, Patterns)</t>
+  </si>
+  <si>
+    <t>1.2 Explore BQ, Wikidata or other public databases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Acquire Data 
+</t>
+  </si>
+  <si>
+    <t>1.1 Acquire  Google Trends data via REST API</t>
   </si>
 </sst>
 </file>
@@ -350,29 +348,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -382,11 +359,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -397,6 +453,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15E14895-1468-B147-B7C2-8AB37B056A68}" name="Table1" displayName="Table1" ref="A1:C15" totalsRowShown="0">
+  <autoFilter ref="A1:C15" xr:uid="{15E14895-1468-B147-B7C2-8AB37B056A68}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{4C3B7603-1833-AC45-9B79-6BD5419A1023}" name="Assignment Objective" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{85258A2B-7F85-0442-98E7-09B9E474322F}" name="Assignment criteria" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{297F10F6-A7A8-6047-BD1D-F9E90C9E8BED}" name="My  Tasks" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -696,175 +764,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FAF85-B879-4F49-BD07-4A37D780F047}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="38.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="66.1640625" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="40" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="161" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="100" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="40" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="40" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="220" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="100" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="100" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="80" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="100" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="40" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="40" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7" t="s">
-        <v>23</v>
+      <c r="C10" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -879,51 +954,51 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="G1" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -949,51 +1024,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="G1" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1021,311 +1096,311 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>43</v>
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N6" s="15"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I15" s="15"/>
-      <c r="P15" s="15"/>
+      <c r="I15" s="6"/>
+      <c r="P15" s="6"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="D16" s="6"/>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L20" s="15"/>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="11" t="s">
+      <c r="F27" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="11" t="s">
+      <c r="F31" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="11" t="s">
+      <c r="F35" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
